--- a/files/Pesca - Acuicultura - Los Lagos.xlsx
+++ b/files/Pesca - Acuicultura - Los Lagos.xlsx
@@ -17,14 +17,14 @@
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
     <definedName name="A_impresión_IM">DT!$A$2:$H$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DT!$B$1:$H$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DT!$B$1:$H$145</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="31">
   <si>
     <t>Total</t>
   </si>
@@ -740,12 +740,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr syncVertical="1" syncRef="A123" transitionEvaluation="1"/>
-  <dimension ref="A1:AB147"/>
+  <sheetPr syncVertical="1" syncRef="D129" transitionEvaluation="1"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5079,22 +5079,22 @@
         <v>4</v>
       </c>
       <c r="C137" s="24">
-        <v>93637.283821411082</v>
+        <v>93637.426821411122</v>
       </c>
       <c r="D137" s="28">
-        <v>9301.0430000000015</v>
+        <v>9301.07</v>
       </c>
       <c r="E137" s="28">
         <v>200.05899999999997</v>
       </c>
       <c r="F137" s="28">
-        <v>44050.59899999998</v>
+        <v>44050.704999999994</v>
       </c>
       <c r="G137" s="28">
-        <v>39959.47682141111</v>
+        <v>39959.481821411129</v>
       </c>
       <c r="H137" s="28">
-        <v>126.10599999999998</v>
+        <v>126.111</v>
       </c>
       <c r="I137" s="48"/>
       <c r="J137" s="39"/>
@@ -5125,22 +5125,22 @@
         <v>5</v>
       </c>
       <c r="C138" s="24">
-        <v>84469.664128560107</v>
+        <v>84476.718128560198</v>
       </c>
       <c r="D138" s="28">
-        <v>10839.633000000005</v>
+        <v>10846.596000000001</v>
       </c>
       <c r="E138" s="28">
-        <v>354.18799999999999</v>
+        <v>354.18800000000005</v>
       </c>
       <c r="F138" s="28">
-        <v>46758.264619999929</v>
+        <v>46758.347619999993</v>
       </c>
       <c r="G138" s="28">
-        <v>26382.145508560177</v>
+        <v>26382.150508560182</v>
       </c>
       <c r="H138" s="28">
-        <v>135.43299999999996</v>
+        <v>135.43599999999998</v>
       </c>
       <c r="I138" s="48"/>
       <c r="J138" s="39"/>
@@ -5171,19 +5171,19 @@
         <v>6</v>
       </c>
       <c r="C139" s="24">
-        <v>87374.622014824592</v>
+        <v>87378.263014824624</v>
       </c>
       <c r="D139" s="28">
-        <v>8740.0639999999985</v>
+        <v>8743.5330000000013</v>
       </c>
       <c r="E139" s="28">
-        <v>404.28199999999998</v>
+        <v>404.2820000000001</v>
       </c>
       <c r="F139" s="28">
-        <v>55970.425799999917</v>
+        <v>55970.594799999963</v>
       </c>
       <c r="G139" s="28">
-        <v>22076.162214824675</v>
+        <v>22076.165214824679</v>
       </c>
       <c r="H139" s="28">
         <v>183.68800000000002</v>
@@ -5217,22 +5217,22 @@
         <v>7</v>
       </c>
       <c r="C140" s="24">
-        <v>70167.760504028338</v>
+        <v>70171.348504028312</v>
       </c>
       <c r="D140" s="28">
-        <v>4732.0930000000008</v>
+        <v>4734.6310000000003</v>
       </c>
       <c r="E140" s="28">
-        <v>196.47199999999998</v>
+        <v>196.47200000000001</v>
       </c>
       <c r="F140" s="28">
-        <v>49011.982000000011</v>
+        <v>49012.969999999987</v>
       </c>
       <c r="G140" s="28">
-        <v>15309.356504028328</v>
+        <v>15309.384504028318</v>
       </c>
       <c r="H140" s="28">
-        <v>917.85699999999986</v>
+        <v>917.89099999999962</v>
       </c>
       <c r="I140" s="48"/>
       <c r="J140" s="39"/>
@@ -5263,22 +5263,22 @@
         <v>8</v>
       </c>
       <c r="C141" s="24">
-        <v>80088.148210833606</v>
+        <v>80089.226210833687</v>
       </c>
       <c r="D141" s="28">
-        <v>3256.208000000001</v>
+        <v>3256.2710000000002</v>
       </c>
       <c r="E141" s="28">
-        <v>193.11499999999998</v>
+        <v>193.11500000000001</v>
       </c>
       <c r="F141" s="28">
-        <v>54048.057199999879</v>
+        <v>54048.98719999996</v>
       </c>
       <c r="G141" s="28">
-        <v>20699.117010833721</v>
+        <v>20699.131010833742</v>
       </c>
       <c r="H141" s="28">
-        <v>1891.6510000000003</v>
+        <v>1891.7220000000002</v>
       </c>
       <c r="I141" s="48"/>
       <c r="J141" s="39"/>
@@ -5309,22 +5309,22 @@
         <v>9</v>
       </c>
       <c r="C142" s="24">
-        <v>70441.207912502286</v>
+        <v>70446.004912502278</v>
       </c>
       <c r="D142" s="28">
-        <v>2625.4680000000021</v>
+        <v>2625.9310000000005</v>
       </c>
       <c r="E142" s="28">
-        <v>259.21499999999992</v>
+        <v>259.21499999999997</v>
       </c>
       <c r="F142" s="28">
-        <v>49961.416999999987</v>
+        <v>49965.696000000004</v>
       </c>
       <c r="G142" s="28">
-        <v>16146.412912502296</v>
+        <v>16146.428912502284</v>
       </c>
       <c r="H142" s="28">
-        <v>1448.6949999999999</v>
+        <v>1448.7339999999999</v>
       </c>
       <c r="I142" s="48"/>
       <c r="J142" s="39"/>
@@ -5348,28 +5348,44 @@
       <c r="AB142" s="11"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A143" s="30"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="32"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
+      <c r="A143" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="24">
+        <v>68172.043004409774</v>
+      </c>
+      <c r="D143" s="28">
+        <v>2523.9279999999999</v>
+      </c>
+      <c r="E143" s="28">
+        <v>225.07299999999995</v>
+      </c>
+      <c r="F143" s="28">
+        <v>48467.828999999991</v>
+      </c>
+      <c r="G143" s="28">
+        <v>15852.139004409792</v>
+      </c>
+      <c r="H143" s="28">
+        <v>1103.0739999999996</v>
+      </c>
+      <c r="I143" s="48"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="32"/>
+      <c r="L143" s="32"/>
+      <c r="M143" s="32"/>
+      <c r="N143" s="32"/>
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
       <c r="R143" s="11"/>
       <c r="S143" s="11"/>
       <c r="T143" s="47"/>
-      <c r="U143" s="11"/>
-      <c r="V143" s="11"/>
+      <c r="U143" s="47"/>
+      <c r="V143" s="47"/>
       <c r="W143" s="11"/>
       <c r="X143" s="11"/>
       <c r="Y143" s="11"/>
@@ -5378,11 +5394,16 @@
       <c r="AB143" s="11"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A144" s="30"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
       <c r="I144" s="11"/>
-      <c r="J144" s="11"/>
+      <c r="J144" s="32"/>
       <c r="K144" s="11"/>
       <c r="L144" s="11"/>
       <c r="M144" s="11"/>
@@ -5403,7 +5424,9 @@
       <c r="AB144" s="11"/>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
+      <c r="A145" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
@@ -5426,9 +5449,7 @@
       <c r="AB145" s="11"/>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A146" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A146" s="8"/>
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
@@ -5451,7 +5472,32 @@
       <c r="AB146" s="11"/>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="47"/>
+      <c r="U147" s="11"/>
+      <c r="V147" s="11"/>
+      <c r="W147" s="11"/>
+      <c r="X147" s="11"/>
+      <c r="Y147" s="11"/>
+      <c r="Z147" s="11"/>
+      <c r="AA147" s="11"/>
+      <c r="AB147" s="11"/>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
         <v>30</v>
       </c>
     </row>
